--- a/resources/reports/situation-room/resources/validation/SituationRoomValidator.xlsx
+++ b/resources/reports/situation-room/resources/validation/SituationRoomValidator.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\BJB\homebase\resources\reports\situation-room\resources\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B149447-52B1-47D7-9833-66D6D19D8FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435DF0C9-E4EB-422E-855B-66E787E78C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="5" xr2:uid="{98DD9104-DA9E-48F0-B605-941EE2D20068}"/>
+    <workbookView xWindow="17310" yWindow="0" windowWidth="19200" windowHeight="15750" activeTab="1" xr2:uid="{98DD9104-DA9E-48F0-B605-941EE2D20068}"/>
   </bookViews>
   <sheets>
-    <sheet name="BasicDebt&amp;SP500" sheetId="1" r:id="rId1"/>
-    <sheet name="SP500Withdraws" sheetId="3" r:id="rId2"/>
-    <sheet name="MBAPlan-1926Simulation" sheetId="4" r:id="rId3"/>
-    <sheet name="MBAPlanRetire@50-1926Simulation" sheetId="5" r:id="rId4"/>
-    <sheet name="SP500-DippingBelowZero" sheetId="6" r:id="rId5"/>
-    <sheet name="HalfStepComparisons" sheetId="7" r:id="rId6"/>
+    <sheet name="Template" sheetId="8" r:id="rId1"/>
+    <sheet name="NoInvWorstCaseRetireAge50" sheetId="9" r:id="rId2"/>
+    <sheet name="BasicDebt&amp;SP500" sheetId="1" r:id="rId3"/>
+    <sheet name="SP500Withdraws" sheetId="3" r:id="rId4"/>
+    <sheet name="MBAPlan-1926Simulation" sheetId="4" r:id="rId5"/>
+    <sheet name="MBAPlanRetire@50-1926Simulation" sheetId="5" r:id="rId6"/>
+    <sheet name="SP500-DippingBelowZero" sheetId="6" r:id="rId7"/>
+    <sheet name="HalfStepComparisons" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="16">
   <si>
     <t>Simulation Year</t>
   </si>
@@ -187,10 +189,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,6 +507,7606 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DC653B-3F65-4E19-8902-190E47D1ADAB}">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="L1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1">
+        <f>0.36</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4">
+        <f>(((((0+100)/100)*(((D3*C3)+100)/100))-1)*10000)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>92000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" cm="1">
+        <f t="array" ref="L3">_xlfn.IFS(ROUND(H3*(1+(F3*C3))+(J3*C3),0)&lt;0, ROUND(H3*(1+(F3*C3))+(J3*C3),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f>ROUND((I3*(1+(G3*C3))+(K3*C3)),0)</f>
+        <v>92000</v>
+      </c>
+      <c r="N3" s="3">
+        <f>L3+M3</f>
+        <v>92000</v>
+      </c>
+      <c r="O3" s="3">
+        <f>L3/(1+E3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <f>M3/(1+E3)</f>
+        <v>92000</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>ROUND(O3+P3,0)</f>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4">
+        <f>((((E3+100)/100)*((D4+100)/100))-1)*10000/100</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4">
+        <f>L3</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>M3</f>
+        <v>92000</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" cm="1">
+        <f t="array" ref="L4">_xlfn.IFS(ROUND(H4*(1+(F4*C4))+(J4*C4),0)&lt;0, ROUND(H4*(1+(F4*C4))+(J4*C4),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M66" si="0">ROUND((I4*(1+(G4*C4))+(K4*C4)),0)</f>
+        <v>92000</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N66" si="1">L4+M4</f>
+        <v>92000</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O66" si="2">L4/(1+E4)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P66" si="3">M4/(1+E4)</f>
+        <v>92000</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>ROUND(O4+P4,0)</f>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:B20" si="4">A4+1</f>
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E66" si="5">((((E4+100)/100)*((D5+100)/100))-1)*10000/100</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <f t="shared" ref="H5:I20" si="6">L4</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6" cm="1">
+        <f t="array" ref="L5">_xlfn.IFS(ROUND(H5*(1+(F5*C5))+(J5*C5),0)&lt;0, ROUND(H5*(1+(F5*C5))+(J5*C5),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O5" s="3">
+        <f>L5/(1+E5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>ROUND(O5+P5,0)</f>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" cm="1">
+        <f t="array" ref="L6">_xlfn.IFS(ROUND(H6*(1+(F6*C6))+(J6*C6),0)&lt;0, ROUND(H6*(1+(F6*C6))+(J6*C6),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" ref="Q6:Q66" si="7">ROUND(O6+P6,0)</f>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" cm="1">
+        <f t="array" ref="L7">_xlfn.IFS(ROUND(H7*(1+(F7*C7))+(J7*C7),0)&lt;0, ROUND(H7*(1+(F7*C7))+(J7*C7),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6" cm="1">
+        <f t="array" ref="L8">_xlfn.IFS(ROUND(H8*(1+(F8*C8))+(J8*C8),0)&lt;0, ROUND(H8*(1+(F8*C8))+(J8*C8),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(ROUND(H9*(1+(F9*C9))+(J9*C9),0)&lt;0, ROUND(H9*(1+(F9*C9))+(J9*C9),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:L66" si="8">ROUND(H10*(1+(F10*C10))+(J10*C10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4">
+        <f>((((E15+100)/100)*((D16+100)/100))-1)*10000/100</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:B32" si="9">A16+1</f>
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4">
+        <f>((((E16+100)/100)*((D17+100)/100))-1)*10000/100</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>92000</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21">
+        <f t="shared" ref="H21:I66" si="10">L20</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:B48" si="11">A32+1</f>
+        <v>57</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q33" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="11"/>
+        <v>58</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="11"/>
+        <v>59</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q41" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>A41+1</f>
+        <v>66</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q42" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q44" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q45" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q46" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q47" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ref="A49:B64" si="12">A48+1</f>
+        <v>73</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q50" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q53" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>A54+1</f>
+        <v>79</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q55" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q57" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q58" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q59" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q60" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q61" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q62" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q63" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>A63+1</f>
+        <v>88</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q64" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ref="A65:B66" si="13">A64+1</f>
+        <v>89</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q65" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="10"/>
+        <v>92000</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="1"/>
+        <v>92000</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="3"/>
+        <v>92000</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" si="7"/>
+        <v>92000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56557B7B-1BCA-4763-B993-01A24C1B01B1}">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="L1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1999</v>
+      </c>
+      <c r="C3" s="1">
+        <f>0.36</f>
+        <v>0.36</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>(((((0+100)/100)*(((D3*C3)+100)/100))-1)*10000)/100</f>
+        <v>7.8840000000024446E-3</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>0.2104</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>92000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f>ROUND(H3*(1+(F3*C3))+(J3*C3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f>ROUND((I3*(1+(G3*C3))+(K3*C3)),0)</f>
+        <v>98968</v>
+      </c>
+      <c r="N3" s="3">
+        <f>L3+M3</f>
+        <v>98968</v>
+      </c>
+      <c r="O3" s="3">
+        <f>L3/(1+E3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <f>M3/(1+E3)</f>
+        <v>98193.839767274563</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>ROUND(O3+P3,0)</f>
+        <v>98194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <f>B3+1</f>
+        <v>2000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <f>((((E3+100)/100)*((D4+100)/100))-1)*10000/100</f>
+        <v>4.1686664792006667E-2</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <f>L3</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>M3</f>
+        <v>98968</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4" si="0">ROUND(H4*(1+(F4*C4))+(J4*C4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M66" si="1">ROUND((I4*(1+(G4*C4))+(K4*C4)),0)</f>
+        <v>89962</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N66" si="2">L4+M4</f>
+        <v>89962</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O66" si="3">L4/(1+E4)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P66" si="4">M4/(1+E4)</f>
+        <v>86361.862007672622</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>ROUND(O4+P4,0)</f>
+        <v>86362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:B15" si="5">A4+1</f>
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="5"/>
+        <v>2001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E66" si="6">((((E4+100)/100)*((D5+100)/100))-1)*10000/100</f>
+        <v>6.9998462118148197E-2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>-0.11890000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:I20" si="7">L4</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="7"/>
+        <v>89962</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f>ROUND(H5*(1+(F5*C5))+(J5*C5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>79266</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>79266</v>
+      </c>
+      <c r="O5" s="3">
+        <f>L5/(1+E5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
+        <v>74080.480305631994</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>ROUND(O5+P5,0)</f>
+        <v>74080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="5"/>
+        <v>2002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="6"/>
+        <v>8.5909591873623015E-2</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>-0.221</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>79266</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f>ROUND(H6*(1+(F6*C6))+(J6*C6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>61748</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>61748</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
+        <v>56862.928978700984</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" ref="Q6:Q66" si="8">ROUND(O6+P6,0)</f>
+        <v>56863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="5"/>
+        <v>2003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.10862909335098703</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>0.2868</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>61748</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ref="L7:L8" si="9">ROUND(H7*(1+(F7*C7))+(J7*C7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>79457</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>79457</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
+        <v>71671.400720533202</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="8"/>
+        <v>71671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.13545820594800251</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>79457</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>88102</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>88102</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>77591.583325995685</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="8"/>
+        <v>77592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.39E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="6"/>
+        <v>0.16940412627983736</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>88102</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" cm="1">
+        <f t="array" ref="L9">_xlfn.IFS(ROUND(H9*(1+(F9*C9))+(J9*C9),0)&lt;0, ROUND(H9*(1+(F9*C9))+(J9*C9),0), TRUE, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>92428</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>92428</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
+        <v>79038.544437188059</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="8"/>
+        <v>79039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="5"/>
+        <v>2006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.20185901321674304</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>0.15790000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>92428</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:L66" si="10">ROUND(H10*(1+(F10*C10))+(J10*C10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>107022</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>107022</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>89047.050297154667</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="8"/>
+        <v>89047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="5"/>
+        <v>2007</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="6"/>
+        <v>0.23041654303550541</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>107022</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>112898</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>112898</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
+        <v>91755.918464388014</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="8"/>
+        <v>91756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="6"/>
+        <v>0.26900525340458614</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>-0.37</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>112898</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>71126</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>71126</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>56048.62533797841</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="8"/>
+        <v>56049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="6"/>
+        <v>0.26559610722596272</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>0.2646</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>71126</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>89946</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>89946</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>71070.066892945033</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="8"/>
+        <v>71070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="6"/>
+        <v>0.2820396649875434</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>89946</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>103492</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>103492</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>80724.491469618879</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="8"/>
+        <v>80724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.31372878952167227</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>103492</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>105676</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>105676</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
+        <v>80439.738279981335</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="8"/>
+        <v>80440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B23" si="11">B15+1</f>
+        <v>2012</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.07E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <f>((((E15+100)/100)*((D16+100)/100))-1)*10000/100</f>
+        <v>0.33449373138110244</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>105676</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>122584</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="2"/>
+        <v>122584</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>91858.056068299862</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="8"/>
+        <v>91858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:B32" si="12">A16+1</f>
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="11"/>
+        <v>2013</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f>((((E16+100)/100)*((D17+100)/100))-1)*10000/100</f>
+        <v>0.34924290195963437</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>122584</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>162289</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="2"/>
+        <v>162289</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
+        <v>120281.52956320332</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="8"/>
+        <v>120282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="11"/>
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="6"/>
+        <v>0.36549947930974996</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>162289</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>184506</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="2"/>
+        <v>184506</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="4"/>
+        <v>135119.78788396643</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="8"/>
+        <v>135120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="11"/>
+        <v>2015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="6"/>
+        <v>0.36670386530348592</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>1.38E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>184506</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>187052</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="2"/>
+        <v>187052</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>136863.59184947782</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="8"/>
+        <v>136864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="11"/>
+        <v>2016</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="6"/>
+        <v>0.37935006999052506</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>0.1196</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>187052</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>209423</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="2"/>
+        <v>209423</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
+        <v>151827.30226086738</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="8"/>
+        <v>151827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="11"/>
+        <v>2017</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="6"/>
+        <v>0.40073087155543247</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:I66" si="13">L20</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="13"/>
+        <v>209423</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>255140</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="2"/>
+        <v>255140</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="4"/>
+        <v>182147.76669888161</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="8"/>
+        <v>182148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="11"/>
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="6"/>
+        <v>0.4252286498880764</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>-4.3799999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="13"/>
+        <v>255140</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>243965</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="2"/>
+        <v>243965</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="4"/>
+        <v>171176.04253826826</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="8"/>
+        <v>171176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>1926</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.43466862138117351</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>0.1162</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="13"/>
+        <v>243965</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>272314</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="2"/>
+        <v>272314</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>189809.68562471235</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="8"/>
+        <v>189810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <f>B23+1</f>
+        <v>1927</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="6"/>
+        <v>0.41538516500587702</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="13"/>
+        <v>272314</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>374405</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="2"/>
+        <v>374405</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="4"/>
+        <v>264525.16901888355</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="8"/>
+        <v>264525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="12"/>
+        <v>1928</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="6"/>
+        <v>0.40383739571190347</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="13"/>
+        <v>374405</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>537683</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="2"/>
+        <v>537683</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="4"/>
+        <v>383009.45796313841</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="8"/>
+        <v>383009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="12"/>
+        <v>1929</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="6"/>
+        <v>0.40383739571190347</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>-8.4199999999999997E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="13"/>
+        <v>537683</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>492410</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="2"/>
+        <v>492410</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="4"/>
+        <v>350759.99649538664</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="8"/>
+        <v>350760</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="12"/>
+        <v>1930</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-2.6600000000000002E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="6"/>
+        <v>0.37712997496464062</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>-0.249</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="13"/>
+        <v>492410</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>-20000</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
+        <v>349800</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="2"/>
+        <v>349800</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="4"/>
+        <v>254006.52542544613</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="8"/>
+        <v>254007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="12"/>
+        <v>1931</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-8.9399999999999993E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="6"/>
+        <v>0.28739282076701844</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>-0.43340000000000001</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="13"/>
+        <v>349800</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>-20000</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="1"/>
+        <v>178197</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="2"/>
+        <v>178197</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="4"/>
+        <v>138416.95955227685</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="8"/>
+        <v>138417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="12"/>
+        <v>1932</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-0.10300000000000001</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1840968061616266</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>-8.1900000000000001E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="13"/>
+        <v>178197</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-20000</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="1"/>
+        <v>143603</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="2"/>
+        <v>143603</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="4"/>
+        <v>121276.40177115596</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="8"/>
+        <v>121276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="12"/>
+        <v>1933</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-5.0900000000000001E-2</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1331031008872996</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="13"/>
+        <v>143603</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-20000</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="1"/>
+        <v>201134</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="2"/>
+        <v>201134</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="4"/>
+        <v>177507.23640461129</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="8"/>
+        <v>177507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="12"/>
+        <v>1934</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="6"/>
+        <v>0.16824982007570544</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="13"/>
+        <v>201134</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-20000</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="1"/>
+        <v>178238</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="2"/>
+        <v>178238</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="4"/>
+        <v>152568.39499316143</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="8"/>
+        <v>152568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="12"/>
+        <v>1935</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="6"/>
+        <v>0.19389289202964566</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="13"/>
+        <v>178238</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-20000</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>243204</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="2"/>
+        <v>243204</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="4"/>
+        <v>203706.71575617435</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="8"/>
+        <v>203707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:B48" si="14">A32+1</f>
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="14"/>
+        <v>1936</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="6"/>
+        <v>0.20431305689043722</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>0.3392</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="13"/>
+        <v>243204</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>-20000</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="1"/>
+        <v>305699</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="2"/>
+        <v>305699</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="4"/>
+        <v>253836.82278536574</v>
+      </c>
+      <c r="Q33" s="6">
+        <f t="shared" si="8"/>
+        <v>253837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="14"/>
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="14"/>
+        <v>1937</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.73E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="6"/>
+        <v>0.24168926566066062</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>-0.3503</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="13"/>
+        <v>305699</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>-20000</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="1"/>
+        <v>178613</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="2"/>
+        <v>178613</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="4"/>
+        <v>143846.77788525948</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="8"/>
+        <v>143847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="14"/>
+        <v>1938</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-2.0099999999999996E-2</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="6"/>
+        <v>0.22154068611826006</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>0.31120000000000003</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>178613</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-20000</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" si="1"/>
+        <v>214197</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="2"/>
+        <v>214197</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="4"/>
+        <v>175349.86958204609</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="8"/>
+        <v>175350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="14"/>
+        <v>1939</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-1.3000000000000001E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="6"/>
+        <v>0.20851188582906577</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>-4.1000000000000003E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>214197</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-20000</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <f t="shared" si="1"/>
+        <v>193319</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="2"/>
+        <v>193319</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="4"/>
+        <v>159964.50036350192</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="8"/>
+        <v>159965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="14"/>
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="14"/>
+        <v>1940</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21582710719671994</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>-9.7799999999999998E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>193319</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-20000</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="1"/>
+        <v>154412</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="2"/>
+        <v>154412</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="4"/>
+        <v>127001.60992134899</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" si="8"/>
+        <v>127002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="14"/>
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="14"/>
+        <v>1941</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5.11E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="6"/>
+        <v>0.26703739484850164</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>-0.1159</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="13"/>
+        <v>154412</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>-20000</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="1"/>
+        <v>116516</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="2"/>
+        <v>116516</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="4"/>
+        <v>91959.401098758972</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="8"/>
+        <v>91959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="14"/>
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="14"/>
+        <v>1942</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="6"/>
+        <v>0.3770303348706649</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>0.2034</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="13"/>
+        <v>116516</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>-20000</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="1"/>
+        <v>120215</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="2"/>
+        <v>120215</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="4"/>
+        <v>87300.182832421749</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" si="8"/>
+        <v>87300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="14"/>
+        <v>1943</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="6"/>
+        <v>0.43725655307158545</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="13"/>
+        <v>120215</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-20000</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="1"/>
+        <v>131351</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="2"/>
+        <v>131351</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="4"/>
+        <v>91390.086007461607</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="8"/>
+        <v>91390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="14"/>
+        <v>1944</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="6"/>
+        <v>0.45372826314629139</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="13"/>
+        <v>131351</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>-20000</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="1"/>
+        <v>137293</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="2"/>
+        <v>137293</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="4"/>
+        <v>94441.996816418745</v>
+      </c>
+      <c r="Q41" s="6">
+        <f t="shared" si="8"/>
+        <v>94442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>A41+1</f>
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:B66" si="15">B41+1</f>
+        <v>1945</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="6"/>
+        <v>0.4765312594620319</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>0.3644</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="13"/>
+        <v>137293</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>-20000</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="1"/>
+        <v>167323</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="2"/>
+        <v>167323</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="4"/>
+        <v>113321.67803949064</v>
+      </c>
+      <c r="Q42" s="6">
+        <f t="shared" si="8"/>
+        <v>113322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="15"/>
+        <v>1946</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.43E-2</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="6"/>
+        <v>0.56123297531374128</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>-8.0699999999999994E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="13"/>
+        <v>167323</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>-20000</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="1"/>
+        <v>133820</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="2"/>
+        <v>133820</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="4"/>
+        <v>85714.305370156479</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" si="8"/>
+        <v>85714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="15"/>
+        <v>1947</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="6"/>
+        <v>0.70855518162258324</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="13"/>
+        <v>133820</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>-20000</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="1"/>
+        <v>121461</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="2"/>
+        <v>121461</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="4"/>
+        <v>71089.890046542569</v>
+      </c>
+      <c r="Q44" s="6">
+        <f t="shared" si="8"/>
+        <v>71090</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="15"/>
+        <v>1948</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="6"/>
+        <v>0.78650360333316627</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>121461</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-20000</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="1"/>
+        <v>108141</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="2"/>
+        <v>108141</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="4"/>
+        <v>60532.203684468419</v>
+      </c>
+      <c r="Q45" s="6">
+        <f t="shared" si="8"/>
+        <v>60532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="15"/>
+        <v>1949</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="6"/>
+        <v>0.77692888549083516</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="13"/>
+        <v>108141</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>-20000</v>
+      </c>
+      <c r="L46" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="1"/>
+        <v>108461</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="2"/>
+        <v>108461</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="4"/>
+        <v>61038.458480593712</v>
+      </c>
+      <c r="Q46" s="6">
+        <f t="shared" si="8"/>
+        <v>61038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="15"/>
+        <v>1950</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="6"/>
+        <v>0.78791357073937363</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="13"/>
+        <v>108461</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>-20000</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="1"/>
+        <v>122854</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="2"/>
+        <v>122854</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="4"/>
+        <v>68713.612341560205</v>
+      </c>
+      <c r="Q47" s="6">
+        <f t="shared" si="8"/>
+        <v>68714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="15"/>
+        <v>1951</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="6"/>
+        <v>0.86733444663311676</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>0.2402</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="13"/>
+        <v>122854</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-20000</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <f t="shared" si="1"/>
+        <v>132364</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="2"/>
+        <v>132364</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="4"/>
+        <v>70883.927749877854</v>
+      </c>
+      <c r="Q48" s="6">
+        <f t="shared" si="8"/>
+        <v>70884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ref="A49:B63" si="16">A48+1</f>
+        <v>73</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="15"/>
+        <v>1952</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2.29E-2</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="6"/>
+        <v>0.89043306622140772</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>0.1837</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="13"/>
+        <v>132364</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>-20000</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" si="1"/>
+        <v>136679</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="2"/>
+        <v>136679</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="4"/>
+        <v>72300.364631895485</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" si="8"/>
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="15"/>
+        <v>1953</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="6"/>
+        <v>0.89870608173283628</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="13"/>
+        <v>136679</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>-20000</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="1"/>
+        <v>115326</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="2"/>
+        <v>115326</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="4"/>
+        <v>60739.258756020208</v>
+      </c>
+      <c r="Q50" s="6">
+        <f t="shared" si="8"/>
+        <v>60739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="15"/>
+        <v>1954</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9019348403274563</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>0.5262</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="13"/>
+        <v>115326</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>-20000</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="1"/>
+        <v>156011</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="2"/>
+        <v>156011</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="4"/>
+        <v>82027.520970770784</v>
+      </c>
+      <c r="Q51" s="6">
+        <f t="shared" si="8"/>
+        <v>82028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="15"/>
+        <v>1955</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="6"/>
+        <v>0.89910958615193604</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>0.31559999999999999</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="13"/>
+        <v>156011</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>-20000</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <f t="shared" si="1"/>
+        <v>185248</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="2"/>
+        <v>185248</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="4"/>
+        <v>97544.660587679988</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" si="8"/>
+        <v>97545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="15"/>
+        <v>1956</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="6"/>
+        <v>0.91444625080903119</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="13"/>
+        <v>185248</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>-20000</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" si="1"/>
+        <v>177400</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="2"/>
+        <v>177400</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="4"/>
+        <v>92663.870779883233</v>
+      </c>
+      <c r="Q53" s="6">
+        <f t="shared" si="8"/>
+        <v>92664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="15"/>
+        <v>1957</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="6"/>
+        <v>0.94815167585680082</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>-0.10780000000000001</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="13"/>
+        <v>177400</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>-20000</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <f t="shared" si="1"/>
+        <v>138276</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="2"/>
+        <v>138276</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="4"/>
+        <v>70978.046377824227</v>
+      </c>
+      <c r="Q54" s="6">
+        <f t="shared" si="8"/>
+        <v>70978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>A54+1</f>
+        <v>79</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="15"/>
+        <v>1958</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="6"/>
+        <v>0.97571052126430569</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="13"/>
+        <v>138276</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>-20000</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <f t="shared" si="1"/>
+        <v>178232</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="2"/>
+        <v>178232</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="4"/>
+        <v>90211.596325328544</v>
+      </c>
+      <c r="Q55" s="6">
+        <f t="shared" si="8"/>
+        <v>90212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="15"/>
+        <v>1959</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="6"/>
+        <v>0.98590906802693556</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>0.1196</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="13"/>
+        <v>178232</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>-20000</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="1"/>
+        <v>179549</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="2"/>
+        <v>179549</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="4"/>
+        <v>90411.491085232672</v>
+      </c>
+      <c r="Q56" s="6">
+        <f t="shared" si="8"/>
+        <v>90411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="15"/>
+        <v>1960</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0006530107508738</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="13"/>
+        <v>179549</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>-20000</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="5">
+        <f t="shared" si="1"/>
+        <v>160393</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="2"/>
+        <v>160393</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="4"/>
+        <v>80170.323958277106</v>
+      </c>
+      <c r="Q57" s="6">
+        <f t="shared" si="8"/>
+        <v>80170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="15"/>
+        <v>1961</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0114600806230278</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>0.26889999999999997</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="13"/>
+        <v>160393</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>-20000</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <f t="shared" si="1"/>
+        <v>183523</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="2"/>
+        <v>183523</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="4"/>
+        <v>91238.69857917128</v>
+      </c>
+      <c r="Q58" s="6">
+        <f t="shared" si="8"/>
+        <v>91239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="15"/>
+        <v>1962</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0235814558327005</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>-8.7300000000000003E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="13"/>
+        <v>183523</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-20000</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <f t="shared" si="1"/>
+        <v>147501</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="2"/>
+        <v>147501</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="4"/>
+        <v>72891.061328343494</v>
+      </c>
+      <c r="Q59" s="6">
+        <f t="shared" si="8"/>
+        <v>72891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="16"/>
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="15"/>
+        <v>1963</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0361083799332205</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="13"/>
+        <v>147501</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>-20000</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="1"/>
+        <v>161131</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="2"/>
+        <v>161131</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="4"/>
+        <v>79136.750080702826</v>
+      </c>
+      <c r="Q60" s="6">
+        <f t="shared" si="8"/>
+        <v>79137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="16"/>
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="15"/>
+        <v>1964</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0490410018058505</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <v>0.1648</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="13"/>
+        <v>161131</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>-20000</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <f t="shared" si="1"/>
+        <v>167685</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="2"/>
+        <v>167685</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="4"/>
+        <v>81835.844110594524</v>
+      </c>
+      <c r="Q61" s="6">
+        <f t="shared" si="8"/>
+        <v>81836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="16"/>
+        <v>86</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="15"/>
+        <v>1965</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0651077993251379</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>0.1245</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="13"/>
+        <v>167685</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>-20000</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <f t="shared" si="1"/>
+        <v>168562</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="2"/>
+        <v>168562</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="4"/>
+        <v>81623.826153329544</v>
+      </c>
+      <c r="Q62" s="6">
+        <f t="shared" si="8"/>
+        <v>81624</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="16"/>
+        <v>87</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="15"/>
+        <v>1966</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0955283967727381</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2">
+        <v>-0.10059999999999999</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="13"/>
+        <v>168562</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>-20000</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
+        <f t="shared" si="1"/>
+        <v>131605</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="2"/>
+        <v>131605</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="4"/>
+        <v>62802.775759412762</v>
+      </c>
+      <c r="Q63" s="6">
+        <f t="shared" si="8"/>
+        <v>62803</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>A63+1</f>
+        <v>88</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="15"/>
+        <v>1967</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="6"/>
+        <v>1.123632953667042</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="13"/>
+        <v>131605</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>-20000</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <f t="shared" si="1"/>
+        <v>143164</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="2"/>
+        <v>143164</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="4"/>
+        <v>67414.663043718363</v>
+      </c>
+      <c r="Q64" s="6">
+        <f t="shared" si="8"/>
+        <v>67415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ref="A65:B66" si="17">A64+1</f>
+        <v>89</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="15"/>
+        <v>1968</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1668127449382615</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2">
+        <v>0.1106</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="13"/>
+        <v>143164</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>-20000</v>
+      </c>
+      <c r="L65" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <f t="shared" si="1"/>
+        <v>138998</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="2"/>
+        <v>138998</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="4"/>
+        <v>64148.598130919912</v>
+      </c>
+      <c r="Q65" s="6">
+        <f t="shared" si="8"/>
+        <v>64149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="15"/>
+        <v>1969</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2220498246969802</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="13"/>
+        <v>138998</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>-20000</v>
+      </c>
+      <c r="L66" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <f t="shared" si="1"/>
+        <v>107183</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="2"/>
+        <v>107183</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="4"/>
+        <v>48236.092102307601</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" si="8"/>
+        <v>48236</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D09C7-724A-4077-AEF9-2932E01108D8}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -533,16 +8135,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -855,7 +8457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DACF3E-6CA9-4FA0-A399-1E79B238BC10}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -890,16 +8492,16 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1528,12 +9130,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82BB13C-DF8D-44D6-B7FA-1D36E74C8E54}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,16 +9165,16 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5615,12 +13217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB116B-A9A9-48E8-88BC-FDADE2AE54F9}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:Q5"/>
+    <sheetView topLeftCell="C34" workbookViewId="0">
+      <selection sqref="A1:Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5649,16 +13251,16 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9701,13 +17303,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAABE94B-D587-4E8F-83BD-810C7F304544}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9735,16 +17335,16 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -11201,12 +18801,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD61012-B650-4A3D-A30B-E20C8692D5F6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11235,16 +18835,16 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -11449,16 +19049,16 @@
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12" t="s">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -11681,7 +19281,7 @@
         <f>ROUND(H10*(1+(F10*C10))+(J10*C10),0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <f>ROUND((I10*(1+(G10*C10))+(K10*C10)),0)</f>
         <v>162839</v>
       </c>
@@ -11708,16 +19308,16 @@
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
